--- a/documents/analyse_uml/usecase_textuel/use_case_administrer/Supprimeradmin.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_administrer/Supprimeradmin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4881B0F1-B8FF-48D0-9E5E-B5235D6477E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528766BA-57FD-4B21-94D8-CDDD9FD42F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{1AF0FFBB-51E6-4D29-9CBF-40D6F3E3778F}"/>
   </bookViews>
@@ -128,29 +128,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NOM DU USE CASE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : supprimereradmin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>ACTEUR</t>
     </r>
     <r>
@@ -261,6 +238,29 @@
   <si>
     <t>3) Quideance redirige vers la page d'aministration
 Affichage d'un message "Suppression effectuée avec succès"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOM DU USE CASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : supprimeradmin</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -386,10 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -399,6 +395,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,9 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7431CFF-62DB-4702-B2AF-5A5F6F06CB74}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -729,32 +727,32 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="105.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -765,7 +763,7 @@
     </row>
     <row r="5" spans="1:4" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -774,16 +772,16 @@
     </row>
     <row r="6" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/documents/analyse_uml/usecase_textuel/use_case_administrer/Supprimeradmin.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_administrer/Supprimeradmin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528766BA-57FD-4B21-94D8-CDDD9FD42F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3900772-8558-41CA-B329-AF3BF568EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{1AF0FFBB-51E6-4D29-9CBF-40D6F3E3778F}"/>
   </bookViews>
@@ -199,6 +199,10 @@
     <t>2) Quideance supprime l'admin (admin, super admin)</t>
   </si>
   <si>
+    <t>3) Quideance redirige vers la page d'aministration
+Affichage d'un message "Suppression effectuée avec succès"</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -208,7 +212,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E2) Erreur serveur</t>
+      <t>NOM DU USE CASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : supprimeradmin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2) L'enregistrement ne se valide pas</t>
     </r>
     <r>
       <rPr>
@@ -233,33 +260,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>On sort du USE CASE sur un échec</t>
-    </r>
-  </si>
-  <si>
-    <t>3) Quideance redirige vers la page d'aministration
-Affichage d'un message "Suppression effectuée avec succès"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOM DU USE CASE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : supprimeradmin</t>
     </r>
   </si>
 </sst>
@@ -715,7 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7431CFF-62DB-4702-B2AF-5A5F6F06CB74}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -727,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -770,18 +772,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="91.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
